--- a/xlsx/a69_f10_aUPPachuca.xlsx
+++ b/xlsx/a69_f10_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -484,24 +484,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,7 +497,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,17 +796,17 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -826,38 +815,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -899,7 +888,7 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -943,27 +932,27 @@
       <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1005,7 +994,7 @@
       <c r="M7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1014,40 +1003,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N8" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1056,40 +1045,40 @@
         <v>2020</v>
       </c>
       <c r="B9" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C9" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M9" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N9" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1098,40 +1087,40 @@
         <v>2020</v>
       </c>
       <c r="B10" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C10" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M10" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N10" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1140,82 +1129,82 @@
         <v>2020</v>
       </c>
       <c r="B11" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C11" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <v>11</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M11" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
       <c r="B12" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C12" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="10">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M12" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N12" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1224,40 +1213,40 @@
         <v>2020</v>
       </c>
       <c r="B13" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C13" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="10">
         <v>11</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M13" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N13" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1266,166 +1255,166 @@
         <v>2020</v>
       </c>
       <c r="B14" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C14" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="10">
         <v>11</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L14" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M14" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2020</v>
       </c>
       <c r="B15" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C15" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="10">
         <v>11</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M15" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2020</v>
       </c>
       <c r="B16" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C16" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="10">
         <v>11</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M16" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2020</v>
       </c>
       <c r="B17" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C17" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="10">
         <v>11</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M17" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N17" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1434,754 +1423,754 @@
         <v>2020</v>
       </c>
       <c r="B18" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C18" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="10">
         <v>11</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L18" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M18" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
       <c r="B19" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C19" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L19" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M19" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2020</v>
       </c>
       <c r="B20" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C20" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M20" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
       <c r="B21" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C21" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L21" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M21" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
       <c r="B22" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C22" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M22" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2020</v>
       </c>
       <c r="B23" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C23" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="G23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L23" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M23" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2020</v>
       </c>
       <c r="B24" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C24" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D24" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M24" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2020</v>
       </c>
       <c r="B25" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C25" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L25" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M25" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
       <c r="B26" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C26" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M26" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2020</v>
       </c>
       <c r="B27" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C27" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="10">
         <v>10</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L27" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M27" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2020</v>
       </c>
       <c r="B28" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C28" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D28" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="10">
         <v>10</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L28" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M28" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
       <c r="B29" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C29" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="10">
         <v>10</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M29" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
       <c r="B30" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C30" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D30" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="10">
         <v>10</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L30" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M30" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2020</v>
       </c>
       <c r="B31" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C31" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="G31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L31" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M31" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2020</v>
       </c>
       <c r="B32" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C32" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="10">
         <v>10</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M32" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2020</v>
       </c>
       <c r="B33" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C33" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="10">
         <v>10</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="10" t="s">
         <v>50</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L33" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M33" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2020</v>
       </c>
       <c r="B34" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C34" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="10">
         <v>10</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="G34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M34" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2020</v>
       </c>
       <c r="B35" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C35" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D35" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="10">
         <v>10</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="G35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L35" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M35" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N35" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N35" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2190,82 +2179,82 @@
         <v>2020</v>
       </c>
       <c r="B36" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C36" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D36" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="10">
         <v>10</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="G36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L36" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M36" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
       <c r="B37" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C37" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D37" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="10">
         <v>10</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="G37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L37" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M37" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N37" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N37" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2274,40 +2263,40 @@
         <v>2020</v>
       </c>
       <c r="B38" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C38" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D38" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="10">
         <v>9</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L38" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M38" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N38" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N38" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2316,82 +2305,82 @@
         <v>2020</v>
       </c>
       <c r="B39" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C39" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="10">
         <v>9</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="6" t="s">
+      <c r="G39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M39" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2020</v>
       </c>
       <c r="B40" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C40" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="10">
         <v>9</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L40" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M40" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N40" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N40" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2400,40 +2389,40 @@
         <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C41" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="10">
         <v>9</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="G41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L41" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M41" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N41" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N41" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2442,82 +2431,82 @@
         <v>2020</v>
       </c>
       <c r="B42" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C42" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="10">
         <v>9</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="G42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L42" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M42" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2020</v>
       </c>
       <c r="B43" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C43" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D43" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="10">
         <v>9</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="G43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L43" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M43" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N43" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N43" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2526,40 +2515,40 @@
         <v>2020</v>
       </c>
       <c r="B44" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C44" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D44" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="10">
         <v>9</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="G44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L44" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M44" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N44" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N44" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2568,40 +2557,40 @@
         <v>2020</v>
       </c>
       <c r="B45" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C45" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D45" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="10">
         <v>9</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="6" t="s">
+      <c r="G45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L45" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M45" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N45" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N45" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2610,544 +2599,544 @@
         <v>2020</v>
       </c>
       <c r="B46" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C46" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="10">
         <v>9</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="6" t="s">
+      <c r="G46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L46" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M46" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2020</v>
       </c>
       <c r="B47" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C47" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D47" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="10">
         <v>9</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="G47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L47" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M47" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2020</v>
       </c>
       <c r="B48" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C48" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D48" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="10">
         <v>9</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="G48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L48" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M48" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2020</v>
       </c>
       <c r="B49" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C49" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D49" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="10">
         <v>9</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="6" t="s">
+      <c r="G49" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L49" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M49" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2020</v>
       </c>
       <c r="B50" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C50" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D50" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="10">
         <v>9</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="6" t="s">
+      <c r="G50" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L50" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M50" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2020</v>
       </c>
       <c r="B51" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C51" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D51" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="10">
         <v>9</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="6" t="s">
+      <c r="G51" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M51" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2020</v>
       </c>
       <c r="B52" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C52" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D52" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="10">
         <v>9</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="G52" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L52" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M52" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N52" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2020</v>
       </c>
       <c r="B53" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C53" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="10">
         <v>9</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="6" t="s">
+      <c r="G53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L53" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M53" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N53" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2020</v>
       </c>
       <c r="B54" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C54" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D54" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="10">
         <v>9</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="6" t="s">
+      <c r="G54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L54" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M54" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2020</v>
       </c>
       <c r="B55" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C55" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D55" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="10">
         <v>9</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="6" t="s">
+      <c r="G55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L55" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M55" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N55" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2020</v>
       </c>
       <c r="B56" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C56" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D56" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="10">
         <v>9</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="6" t="s">
+      <c r="G56" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L56" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M56" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N56" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2020</v>
       </c>
       <c r="B57" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C57" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D57" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="10">
         <v>9</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="6" t="s">
+      <c r="G57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L57" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M57" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N57" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2020</v>
       </c>
       <c r="B58" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C58" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D58" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="10">
         <v>9</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="6" t="s">
+      <c r="G58" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L58" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M58" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N58" s="15" t="s">
+        <v>44206</v>
+      </c>
+      <c r="N58" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3156,100 +3145,84 @@
         <v>2020</v>
       </c>
       <c r="B59" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C59" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D59" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="10">
         <v>9</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="6" t="s">
+      <c r="G59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M59" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2020</v>
       </c>
       <c r="B60" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C60" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D60" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="10">
         <v>9</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="6" t="s">
+      <c r="G60" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L60" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M60" s="3">
-        <v>44114</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="9"/>
+        <v>44206</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3262,10 +3235,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G152">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I152">
       <formula1>Hidden_28</formula1>
     </dataValidation>
   </dataValidations>
@@ -3281,34 +3254,37 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3321,17 +3297,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
     </row>

--- a/xlsx/a69_f10_aUPPachuca.xlsx
+++ b/xlsx/a69_f10_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -483,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -510,6 +510,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +803,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD184"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,8 +811,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -812,7 +821,7 @@
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" customWidth="1"/>
+    <col min="14" max="14" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -837,7 +846,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -848,11 +857,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -898,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1004,15 +1013,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>51</v>
@@ -1037,24 +1046,24 @@
         <v>109</v>
       </c>
       <c r="L8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>53</v>
@@ -1079,24 +1088,24 @@
         <v>109</v>
       </c>
       <c r="L9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>55</v>
@@ -1121,12 +1130,12 @@
         <v>109</v>
       </c>
       <c r="L10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N10" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1135,10 +1144,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>63</v>
@@ -1163,24 +1172,24 @@
         <v>109</v>
       </c>
       <c r="L11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C12" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>57</v>
@@ -1205,12 +1214,12 @@
         <v>109</v>
       </c>
       <c r="L12" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N12" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1219,10 +1228,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>59</v>
@@ -1247,24 +1256,24 @@
         <v>109</v>
       </c>
       <c r="L13" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C14" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>60</v>
@@ -1289,24 +1298,24 @@
         <v>109</v>
       </c>
       <c r="L14" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M14" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>61</v>
@@ -1331,12 +1340,12 @@
         <v>109</v>
       </c>
       <c r="L15" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M15" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N15" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1345,10 +1354,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>62</v>
@@ -1373,12 +1382,12 @@
         <v>109</v>
       </c>
       <c r="L16" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M16" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N16" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1387,10 +1396,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C17" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>64</v>
@@ -1415,24 +1424,24 @@
         <v>109</v>
       </c>
       <c r="L17" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M17" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>65</v>
@@ -1457,12 +1466,12 @@
         <v>109</v>
       </c>
       <c r="L18" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M18" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N18" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1471,10 +1480,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>66</v>
@@ -1499,12 +1508,12 @@
         <v>109</v>
       </c>
       <c r="L19" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M19" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N19" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1513,10 +1522,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>68</v>
@@ -1541,12 +1550,12 @@
         <v>109</v>
       </c>
       <c r="L20" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M20" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N20" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N20" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1555,10 +1564,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C21" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>69</v>
@@ -1583,12 +1592,12 @@
         <v>109</v>
       </c>
       <c r="L21" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M21" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N21" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1597,10 +1606,10 @@
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C22" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>70</v>
@@ -1625,12 +1634,12 @@
         <v>109</v>
       </c>
       <c r="L22" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M22" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N22" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N22" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1639,10 +1648,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C23" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>71</v>
@@ -1667,12 +1676,12 @@
         <v>109</v>
       </c>
       <c r="L23" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M23" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N23" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1681,10 +1690,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C24" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>72</v>
@@ -1709,12 +1718,12 @@
         <v>109</v>
       </c>
       <c r="L24" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M24" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N24" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N24" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1723,10 +1732,10 @@
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C25" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>73</v>
@@ -1751,12 +1760,12 @@
         <v>109</v>
       </c>
       <c r="L25" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M25" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N25" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N25" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1765,10 +1774,10 @@
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C26" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>74</v>
@@ -1793,12 +1802,12 @@
         <v>109</v>
       </c>
       <c r="L26" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M26" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N26" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1807,10 +1816,10 @@
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>75</v>
@@ -1835,12 +1844,12 @@
         <v>109</v>
       </c>
       <c r="L27" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M27" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N27" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1849,10 +1858,10 @@
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C28" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>51</v>
@@ -1877,12 +1886,12 @@
         <v>109</v>
       </c>
       <c r="L28" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M28" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N28" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1891,10 +1900,10 @@
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C29" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>62</v>
@@ -1919,12 +1928,12 @@
         <v>109</v>
       </c>
       <c r="L29" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M29" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N29" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1933,10 +1942,10 @@
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C30" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>53</v>
@@ -1961,12 +1970,12 @@
         <v>109</v>
       </c>
       <c r="L30" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M30" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N30" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1975,10 +1984,10 @@
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C31" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>64</v>
@@ -2003,12 +2012,12 @@
         <v>109</v>
       </c>
       <c r="L31" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M31" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N31" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2017,10 +2026,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C32" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>64</v>
@@ -2045,12 +2054,12 @@
         <v>109</v>
       </c>
       <c r="L32" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M32" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N32" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N32" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2059,10 +2068,10 @@
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C33" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>64</v>
@@ -2087,12 +2096,12 @@
         <v>109</v>
       </c>
       <c r="L33" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M33" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N33" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N33" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2101,10 +2110,10 @@
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C34" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>64</v>
@@ -2129,12 +2138,12 @@
         <v>109</v>
       </c>
       <c r="L34" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M34" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N34" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N34" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2143,10 +2152,10 @@
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C35" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>55</v>
@@ -2171,24 +2180,24 @@
         <v>109</v>
       </c>
       <c r="L35" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M35" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C36" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>65</v>
@@ -2213,12 +2222,12 @@
         <v>109</v>
       </c>
       <c r="L36" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M36" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N36" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N36" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2227,10 +2236,10 @@
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>65</v>
@@ -2255,24 +2264,24 @@
         <v>109</v>
       </c>
       <c r="L37" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M37" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C38" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>51</v>
@@ -2297,24 +2306,24 @@
         <v>109</v>
       </c>
       <c r="L38" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M38" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>51</v>
@@ -2339,12 +2348,12 @@
         <v>109</v>
       </c>
       <c r="L39" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M39" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N39" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N39" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2353,10 +2362,10 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C40" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>59</v>
@@ -2381,24 +2390,24 @@
         <v>109</v>
       </c>
       <c r="L40" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M40" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>60</v>
@@ -2423,24 +2432,24 @@
         <v>109</v>
       </c>
       <c r="L41" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M41" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C42" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>61</v>
@@ -2465,12 +2474,12 @@
         <v>109</v>
       </c>
       <c r="L42" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M42" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N42" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N42" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2479,10 +2488,10 @@
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>53</v>
@@ -2507,12 +2516,12 @@
         <v>109</v>
       </c>
       <c r="L43" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M43" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N43" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N43" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2521,10 +2530,10 @@
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C44" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>53</v>
@@ -2549,24 +2558,24 @@
         <v>109</v>
       </c>
       <c r="L44" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M44" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C45" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>53</v>
@@ -2591,24 +2600,24 @@
         <v>109</v>
       </c>
       <c r="L45" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M45" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C46" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>53</v>
@@ -2633,12 +2642,12 @@
         <v>109</v>
       </c>
       <c r="L46" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M46" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N46" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N46" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2647,10 +2656,10 @@
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C47" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>53</v>
@@ -2675,24 +2684,24 @@
         <v>109</v>
       </c>
       <c r="L47" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M47" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C48" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>53</v>
@@ -2717,12 +2726,12 @@
         <v>109</v>
       </c>
       <c r="L48" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M48" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N48" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N48" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2731,10 +2740,10 @@
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C49" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>64</v>
@@ -2759,12 +2768,12 @@
         <v>109</v>
       </c>
       <c r="L49" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M49" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N49" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N49" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2773,10 +2782,10 @@
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C50" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>64</v>
@@ -2801,12 +2810,12 @@
         <v>109</v>
       </c>
       <c r="L50" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M50" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N50" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N50" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2815,10 +2824,10 @@
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C51" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>55</v>
@@ -2843,12 +2852,12 @@
         <v>109</v>
       </c>
       <c r="L51" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M51" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N51" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N51" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2857,10 +2866,10 @@
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C52" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>55</v>
@@ -2885,12 +2894,12 @@
         <v>109</v>
       </c>
       <c r="L52" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M52" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N52" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N52" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2899,10 +2908,10 @@
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C53" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>55</v>
@@ -2927,12 +2936,12 @@
         <v>109</v>
       </c>
       <c r="L53" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M53" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N53" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N53" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2941,10 +2950,10 @@
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C54" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>55</v>
@@ -2969,12 +2978,12 @@
         <v>109</v>
       </c>
       <c r="L54" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M54" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N54" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N54" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2983,10 +2992,10 @@
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C55" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>55</v>
@@ -3011,12 +3020,12 @@
         <v>109</v>
       </c>
       <c r="L55" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M55" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N55" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N55" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3025,10 +3034,10 @@
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C56" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>55</v>
@@ -3053,12 +3062,12 @@
         <v>109</v>
       </c>
       <c r="L56" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M56" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N56" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N56" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3067,10 +3076,10 @@
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C57" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>55</v>
@@ -3095,12 +3104,12 @@
         <v>109</v>
       </c>
       <c r="L57" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M57" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N57" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N57" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3109,10 +3118,10 @@
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C58" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>55</v>
@@ -3137,24 +3146,24 @@
         <v>109</v>
       </c>
       <c r="L58" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M58" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C59" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>65</v>
@@ -3179,12 +3188,12 @@
         <v>109</v>
       </c>
       <c r="L59" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M59" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N59" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N59" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3193,10 +3202,10 @@
         <v>2021</v>
       </c>
       <c r="B60" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C60" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>65</v>
@@ -3221,12 +3230,12 @@
         <v>109</v>
       </c>
       <c r="L60" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M60" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N60" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="N60" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3241,14 +3250,15 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G76">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G60">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I76">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I60">
       <formula1>Hidden_28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3256,9 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD78"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3301,9 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f10_aUPPachuca.xlsx
+++ b/xlsx/a69_f10_aUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="Hidden_16">Hidden_1!$A$1:$A$6</definedName>
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -186,24 +186,42 @@
     <t>Rector</t>
   </si>
   <si>
+    <t>Rectoría (UPP)</t>
+  </si>
+  <si>
+    <t>Recursos Humanos (UPP)</t>
+  </si>
+  <si>
     <t>Secretaría Académica</t>
   </si>
   <si>
     <t>Secretario Académico</t>
   </si>
   <si>
+    <t>11 C</t>
+  </si>
+  <si>
     <t>Secretaría Administrativa</t>
   </si>
   <si>
     <t>Secretario Administativo</t>
   </si>
   <si>
+    <t>Dirección de la División de Estudios Profesionales</t>
+  </si>
+  <si>
+    <t>Director de Área</t>
+  </si>
+  <si>
+    <t>11 B</t>
+  </si>
+  <si>
+    <t>Secretaría Académica (UPP)</t>
+  </si>
+  <si>
     <t>Órgano Interno de Control</t>
   </si>
   <si>
-    <t>Director de Área</t>
-  </si>
-  <si>
     <t>Dirección de Vinculación y Extensión</t>
   </si>
   <si>
@@ -216,9 +234,6 @@
     <t>Dirección de Comunicación Social e Imagen Institucional</t>
   </si>
   <si>
-    <t>Dirección de la División de Estudios Profesionales</t>
-  </si>
-  <si>
     <t>Dirección de Investigación, Innovación y Posgrado</t>
   </si>
   <si>
@@ -231,6 +246,12 @@
     <t>Director de Programa Educativo</t>
   </si>
   <si>
+    <t>11 A</t>
+  </si>
+  <si>
+    <t>Dirección de la División de Estudios Profesionales (UPP)</t>
+  </si>
+  <si>
     <t>Ingeniería Financiera</t>
   </si>
   <si>
@@ -258,15 +279,24 @@
     <t>Coordinación del Centro de Patentamiento</t>
   </si>
   <si>
+    <t>10 A</t>
+  </si>
+  <si>
     <t>Subdirección de Comunicación Social</t>
   </si>
   <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
+  </si>
+  <si>
     <t>Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
     <t>Coordinación del Posgrado en Didáctica y Ciencias</t>
   </si>
   <si>
+    <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
+  </si>
+  <si>
     <t>Coordinación del Posgrado en Biotecnología</t>
   </si>
   <si>
@@ -279,27 +309,45 @@
     <t>Subdirección de Recursos Financieros</t>
   </si>
   <si>
+    <t>Secretaría Administrativa (UPP)</t>
+  </si>
+  <si>
     <t>Subdirección de Calidad</t>
   </si>
   <si>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
     <t>Subdirección de Planeación y Presupuesto</t>
   </si>
   <si>
     <t>Unidad de Promoción y Desarrollo Estudiantil</t>
   </si>
   <si>
+    <t>09 C</t>
+  </si>
+  <si>
     <t>Departamento de Programas Especiales</t>
   </si>
   <si>
     <t>Departamento de Vinculación y Extensión</t>
   </si>
   <si>
+    <t>Dirección de Vinculación y Extensión (UPP)</t>
+  </si>
+  <si>
     <t>Departamento Jurídico</t>
   </si>
   <si>
+    <t>Abogado General (UPP)</t>
+  </si>
+  <si>
     <t>Departamento de Logística</t>
   </si>
   <si>
+    <t>Dirección de Logística (UPP)</t>
+  </si>
+  <si>
     <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
   </si>
   <si>
@@ -354,55 +402,7 @@
     <t>Departamento de Evaluación y Estadísticas</t>
   </si>
   <si>
-    <t>Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>11 C</t>
-  </si>
-  <si>
-    <t>11 B</t>
-  </si>
-  <si>
-    <t>11 A</t>
-  </si>
-  <si>
-    <t>10 A</t>
-  </si>
-  <si>
-    <t>Rectoría (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Estudios Profesionales (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
-  </si>
-  <si>
-    <t>Secretaría Académica (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
-  </si>
-  <si>
-    <t>Secretaría Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación y Extensión (UPP)</t>
-  </si>
-  <si>
-    <t>Abogado General (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Logística (UPP)</t>
-  </si>
-  <si>
     <t>Esta Institución no emite convocatoria para ocupar cargos dentro de su estructura</t>
-  </si>
-  <si>
-    <t>09 C</t>
   </si>
 </sst>
 </file>
@@ -500,11 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -514,6 +509,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -580,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,8 +811,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -821,7 +821,7 @@
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65" customWidth="1"/>
+    <col min="14" max="14" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -830,33 +830,33 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
@@ -907,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -952,22 +952,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1018,15 +1018,15 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="2">
@@ -1035,24 +1035,24 @@
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>114</v>
+      <c r="H8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="10" t="s">
-        <v>109</v>
+      <c r="K8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1060,41 +1060,41 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="10" t="s">
-        <v>109</v>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M9" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1102,83 +1102,83 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
+        <v>44469</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>114</v>
+      <c r="H10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="10" t="s">
-        <v>109</v>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M10" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="10" t="s">
-        <v>109</v>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M11" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1186,83 +1186,83 @@
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>58</v>
+        <v>44469</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>114</v>
+      <c r="H12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="10" t="s">
-        <v>109</v>
+      <c r="K12" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L12" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M12" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C13" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>58</v>
+        <v>44469</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>114</v>
+      <c r="H13" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="10" t="s">
-        <v>109</v>
+      <c r="K13" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L13" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M13" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1270,41 +1270,41 @@
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C14" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>58</v>
+        <v>44469</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>114</v>
+      <c r="H14" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="10" t="s">
-        <v>109</v>
+      <c r="K14" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L14" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M14" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1312,125 +1312,125 @@
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C15" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>114</v>
+      <c r="H15" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="10" t="s">
-        <v>109</v>
+      <c r="K15" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L15" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M15" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C16" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>114</v>
+      <c r="H16" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="10" t="s">
-        <v>109</v>
+      <c r="K16" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L16" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M16" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C17" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
+        <v>44469</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>114</v>
+      <c r="H17" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="10" t="s">
-        <v>109</v>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L17" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M17" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1438,41 +1438,41 @@
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C18" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>44469</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>114</v>
+      <c r="H18" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="10" t="s">
-        <v>109</v>
+      <c r="K18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L18" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M18" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1480,41 +1480,41 @@
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C19" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>67</v>
+        <v>44469</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>115</v>
+      <c r="H19" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="10" t="s">
-        <v>109</v>
+      <c r="K19" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L19" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M19" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1522,41 +1522,41 @@
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C20" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>67</v>
+        <v>44469</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>115</v>
+      <c r="H20" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="10" t="s">
-        <v>109</v>
+      <c r="K20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L20" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M20" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1564,41 +1564,41 @@
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C21" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>44469</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>115</v>
+      <c r="H21" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="10" t="s">
-        <v>109</v>
+      <c r="K21" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L21" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M21" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1606,41 +1606,41 @@
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>44469</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>115</v>
+      <c r="H22" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="10" t="s">
-        <v>109</v>
+      <c r="K22" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L22" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M22" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1648,41 +1648,41 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C23" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>67</v>
+        <v>44469</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>115</v>
+      <c r="H23" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="10" t="s">
-        <v>109</v>
+      <c r="K23" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L23" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M23" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1690,41 +1690,41 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C24" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>115</v>
+      <c r="H24" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="10" t="s">
-        <v>109</v>
+      <c r="K24" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L24" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M24" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1732,41 +1732,41 @@
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C25" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D25" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="G25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>115</v>
+      <c r="H25" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="10" t="s">
-        <v>109</v>
+      <c r="K25" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L25" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M25" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1774,41 +1774,41 @@
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C26" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="10" t="s">
-        <v>109</v>
+      <c r="K26" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L26" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M26" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1816,83 +1816,83 @@
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C27" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>67</v>
+        <v>44469</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>115</v>
+      <c r="H27" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="10" t="s">
-        <v>109</v>
+      <c r="K27" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L27" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M27" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C28" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>76</v>
+      <c r="E28" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>114</v>
+      <c r="H28" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="10" t="s">
-        <v>109</v>
+      <c r="K28" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L28" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M28" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1900,83 +1900,83 @@
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C29" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>77</v>
+        <v>44469</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>116</v>
+      <c r="H29" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="10" t="s">
-        <v>109</v>
+      <c r="K29" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L29" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M29" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C30" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>78</v>
+        <v>44469</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>117</v>
+      <c r="H30" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="10" t="s">
-        <v>109</v>
+      <c r="K30" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L30" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M30" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -1984,41 +1984,41 @@
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C31" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>79</v>
+        <v>44469</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>118</v>
+      <c r="H31" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="10" t="s">
-        <v>109</v>
+      <c r="K31" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L31" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M31" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -2026,83 +2026,83 @@
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>80</v>
+        <v>44469</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>118</v>
+      <c r="H32" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="10" t="s">
-        <v>109</v>
+      <c r="K32" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L32" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M32" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C33" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>81</v>
+        <v>44469</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>118</v>
+      <c r="H33" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="10" t="s">
-        <v>109</v>
+      <c r="K33" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L33" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M33" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -2110,41 +2110,41 @@
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C34" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>82</v>
+        <v>44469</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>118</v>
+      <c r="H34" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="10" t="s">
-        <v>109</v>
+      <c r="K34" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L34" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M34" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2152,41 +2152,41 @@
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C35" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>83</v>
+        <v>44469</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>119</v>
+      <c r="H35" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="10" t="s">
-        <v>109</v>
+      <c r="K35" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L35" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M35" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2194,83 +2194,83 @@
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C36" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="G36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>120</v>
+      <c r="H36" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="10" t="s">
-        <v>109</v>
+      <c r="K36" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L36" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M36" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C37" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>85</v>
+        <v>44469</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>120</v>
+      <c r="H37" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="10" t="s">
-        <v>109</v>
+      <c r="K37" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L37" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M37" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2278,41 +2278,41 @@
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C38" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D38" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>86</v>
+      <c r="E38" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>114</v>
+      <c r="H38" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="10" t="s">
-        <v>109</v>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L38" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M38" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2320,41 +2320,41 @@
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C39" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D39" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>87</v>
+      <c r="E39" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>114</v>
+      <c r="H39" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="10" t="s">
-        <v>109</v>
+      <c r="K39" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L39" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M39" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2362,41 +2362,41 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C40" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>88</v>
+        <v>44469</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>121</v>
+      <c r="H40" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="10" t="s">
-        <v>109</v>
+      <c r="K40" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L40" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M40" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2404,41 +2404,41 @@
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C41" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>89</v>
+        <v>44469</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>122</v>
+      <c r="H41" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="10" t="s">
-        <v>109</v>
+      <c r="K41" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L41" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M41" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2446,41 +2446,41 @@
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C42" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>90</v>
+        <v>44469</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>123</v>
+      <c r="H42" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="10" t="s">
-        <v>109</v>
+      <c r="K42" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L42" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M42" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -2488,41 +2488,41 @@
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C43" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>91</v>
+        <v>44469</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>115</v>
+      <c r="H43" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="10" t="s">
-        <v>109</v>
+      <c r="K43" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L43" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M43" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -2530,41 +2530,41 @@
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>92</v>
+        <v>44469</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>115</v>
+      <c r="H44" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="10" t="s">
-        <v>109</v>
+      <c r="K44" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L44" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M44" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2572,41 +2572,41 @@
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C45" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>93</v>
+        <v>44469</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>117</v>
+      <c r="H45" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="10" t="s">
-        <v>109</v>
+      <c r="K45" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L45" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M45" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2614,41 +2614,41 @@
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C46" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>94</v>
+        <v>44469</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>117</v>
+      <c r="H46" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="10" t="s">
-        <v>109</v>
+      <c r="K46" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L46" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M46" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2656,41 +2656,41 @@
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C47" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>95</v>
+        <v>44469</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>117</v>
+      <c r="H47" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="10" t="s">
-        <v>109</v>
+      <c r="K47" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L47" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M47" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2698,41 +2698,41 @@
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C48" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>96</v>
+        <v>44469</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>117</v>
+      <c r="H48" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="10" t="s">
-        <v>109</v>
+      <c r="K48" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L48" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M48" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N48" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -2740,41 +2740,41 @@
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C49" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>97</v>
+        <v>44469</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>118</v>
+      <c r="H49" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="10" t="s">
-        <v>109</v>
+      <c r="K49" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L49" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M49" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -2782,41 +2782,41 @@
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C50" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>98</v>
+        <v>44469</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>118</v>
+      <c r="H50" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="10" t="s">
-        <v>109</v>
+      <c r="K50" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L50" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M50" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2824,41 +2824,41 @@
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C51" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="9" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="G51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>119</v>
+      <c r="H51" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="10" t="s">
-        <v>109</v>
+      <c r="K51" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L51" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M51" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2866,41 +2866,41 @@
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C52" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>100</v>
+        <v>44469</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>119</v>
+      <c r="H52" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="10" t="s">
-        <v>109</v>
+      <c r="K52" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L52" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M52" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2908,41 +2908,41 @@
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C53" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>101</v>
+        <v>44469</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>119</v>
+      <c r="H53" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="10" t="s">
-        <v>109</v>
+      <c r="K53" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L53" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M53" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2950,41 +2950,41 @@
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C54" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>102</v>
+        <v>44469</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>119</v>
+      <c r="H54" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="10" t="s">
-        <v>109</v>
+      <c r="K54" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L54" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M54" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2992,41 +2992,41 @@
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C55" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>103</v>
+        <v>44469</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>119</v>
+      <c r="H55" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="10" t="s">
-        <v>109</v>
+      <c r="K55" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L55" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M55" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3034,41 +3034,41 @@
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C56" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>104</v>
+        <v>44469</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>119</v>
+      <c r="H56" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="10" t="s">
-        <v>109</v>
+      <c r="K56" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L56" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M56" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3076,83 +3076,83 @@
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C57" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>105</v>
+        <v>44469</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>119</v>
+      <c r="H57" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="10" t="s">
-        <v>109</v>
+      <c r="K57" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L57" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M57" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C58" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>106</v>
+        <v>44469</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>119</v>
+      <c r="H58" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="10" t="s">
-        <v>109</v>
+      <c r="K58" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L58" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M58" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3160,83 +3160,83 @@
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C59" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>107</v>
+        <v>44469</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>120</v>
+      <c r="H59" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="10" t="s">
-        <v>109</v>
+      <c r="K59" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L59" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M59" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N59" s="11" t="s">
+        <v>44480</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44378</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="3">
-        <v>44287</v>
-      </c>
-      <c r="C60" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="F60" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>120</v>
+      <c r="H60" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="10" t="s">
-        <v>109</v>
+      <c r="K60" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L60" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M60" s="3">
-        <v>44386</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>124</v>
+        <v>44480</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3250,10 +3250,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G104">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I104">
       <formula1>Hidden_28</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f10_aUPPachuca.xlsx
+++ b/xlsx/a69_f10_aUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,13 +422,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -483,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -501,25 +499,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +795,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,8 +803,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -821,7 +813,7 @@
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.42578125" customWidth="1"/>
+    <col min="14" max="14" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -846,7 +838,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -857,11 +849,11 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1018,15 +1010,15 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="2">
@@ -1035,23 +1027,23 @@
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N8" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1060,15 +1052,15 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1077,23 +1069,23 @@
       <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M9" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N9" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1102,15 +1094,15 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1119,40 +1111,40 @@
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M10" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C11" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1161,23 +1153,23 @@
       <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L11" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M11" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N11" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1186,15 +1178,15 @@
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C12" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1203,40 +1195,40 @@
       <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L12" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M12" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C13" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1245,23 +1237,23 @@
       <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L13" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M13" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N13" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1270,15 +1262,15 @@
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C14" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1287,23 +1279,23 @@
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L14" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M14" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N14" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1312,15 +1304,15 @@
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C15" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1329,40 +1321,40 @@
       <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L15" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M15" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C16" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1371,40 +1363,40 @@
       <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L16" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M16" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C17" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1413,23 +1405,23 @@
       <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L17" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M17" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N17" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1438,15 +1430,15 @@
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C18" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1455,23 +1447,23 @@
       <c r="G18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L18" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M18" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N18" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1480,15 +1472,15 @@
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C19" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1497,23 +1489,23 @@
       <c r="G19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L19" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M19" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N19" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1522,15 +1514,15 @@
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C20" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1539,23 +1531,23 @@
       <c r="G20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L20" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M20" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N20" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1564,15 +1556,15 @@
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C21" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1581,23 +1573,23 @@
       <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L21" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M21" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N21" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1606,15 +1598,15 @@
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C22" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1623,23 +1615,23 @@
       <c r="G22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L22" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M22" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N22" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1648,15 +1640,15 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C23" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1665,23 +1657,23 @@
       <c r="G23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L23" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M23" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N23" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1690,15 +1682,15 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C24" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D24" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1707,23 +1699,23 @@
       <c r="G24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L24" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M24" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N24" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1732,15 +1724,15 @@
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C25" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1749,23 +1741,23 @@
       <c r="G25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M25" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N25" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1774,15 +1766,15 @@
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C26" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -1791,23 +1783,23 @@
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L26" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M26" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N26" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1816,15 +1808,15 @@
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C27" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -1833,40 +1825,40 @@
       <c r="G27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L27" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M27" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C28" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D28" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -1875,23 +1867,23 @@
       <c r="G28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L28" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M28" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N28" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1900,15 +1892,15 @@
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C29" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -1917,40 +1909,40 @@
       <c r="G29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>86</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L29" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M29" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C30" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D30" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -1959,23 +1951,23 @@
       <c r="G30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L30" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M30" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N30" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1984,15 +1976,15 @@
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C31" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -2001,23 +1993,23 @@
       <c r="G31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L31" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M31" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N31" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2026,15 +2018,15 @@
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C32" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2043,40 +2035,40 @@
       <c r="G32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L32" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M32" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C33" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -2085,23 +2077,23 @@
       <c r="G33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L33" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M33" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N33" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2110,15 +2102,15 @@
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C34" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -2127,23 +2119,23 @@
       <c r="G34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L34" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M34" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N34" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2152,15 +2144,15 @@
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C35" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D35" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -2169,23 +2161,23 @@
       <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L35" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M35" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N35" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2194,15 +2186,15 @@
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C36" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D36" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -2211,40 +2203,40 @@
       <c r="G36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L36" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M36" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C37" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D37" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -2253,23 +2245,23 @@
       <c r="G37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L37" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M37" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N37" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2278,15 +2270,15 @@
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C38" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D38" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -2295,23 +2287,23 @@
       <c r="G38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L38" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M38" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N38" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2320,15 +2312,15 @@
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C39" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -2337,23 +2329,23 @@
       <c r="G39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L39" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M39" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N39" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N39" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2362,15 +2354,15 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C40" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -2379,23 +2371,23 @@
       <c r="G40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L40" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M40" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N40" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2404,15 +2396,15 @@
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C41" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -2421,23 +2413,23 @@
       <c r="G41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
         <v>104</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L41" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M41" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N41" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2446,15 +2438,15 @@
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C42" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -2463,23 +2455,23 @@
       <c r="G42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L42" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M42" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N42" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2488,15 +2480,15 @@
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C43" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D43" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2505,23 +2497,23 @@
       <c r="G43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L43" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M43" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N43" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2530,15 +2522,15 @@
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C44" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D44" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -2547,23 +2539,23 @@
       <c r="G44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L44" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M44" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N44" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2572,15 +2564,15 @@
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C45" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D45" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -2589,23 +2581,23 @@
       <c r="G45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L45" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M45" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N45" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2614,15 +2606,15 @@
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C46" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2631,23 +2623,23 @@
       <c r="G46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L46" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M46" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N46" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2656,15 +2648,15 @@
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C47" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D47" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -2673,23 +2665,23 @@
       <c r="G47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L47" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M47" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N47" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2698,15 +2690,15 @@
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C48" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D48" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -2715,23 +2707,23 @@
       <c r="G48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L48" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M48" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N48" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2740,15 +2732,15 @@
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C49" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D49" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -2757,23 +2749,23 @@
       <c r="G49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L49" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M49" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N49" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2782,15 +2774,15 @@
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C50" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D50" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -2799,23 +2791,23 @@
       <c r="G50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L50" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M50" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N50" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2824,15 +2816,15 @@
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C51" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D51" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -2841,23 +2833,23 @@
       <c r="G51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L51" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M51" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N51" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N51" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2866,15 +2858,15 @@
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C52" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D52" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -2883,23 +2875,23 @@
       <c r="G52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L52" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M52" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N52" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2908,15 +2900,15 @@
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C53" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -2925,23 +2917,23 @@
       <c r="G53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L53" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M53" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N53" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2950,15 +2942,15 @@
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C54" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D54" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -2967,23 +2959,23 @@
       <c r="G54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L54" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M54" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N54" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2992,15 +2984,15 @@
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C55" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D55" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -3009,23 +3001,23 @@
       <c r="G55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L55" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M55" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N55" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N55" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3034,15 +3026,15 @@
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C56" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D56" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -3051,23 +3043,23 @@
       <c r="G56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L56" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M56" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N56" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3076,15 +3068,15 @@
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C57" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D57" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -3093,40 +3085,40 @@
       <c r="G57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L57" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M57" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C58" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D58" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3135,23 +3127,23 @@
       <c r="G58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L58" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M58" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N58" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N58" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3160,15 +3152,15 @@
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C59" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D59" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3177,40 +3169,40 @@
       <c r="G59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="7" t="s">
+      <c r="K59" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L59" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M59" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2021</v>
       </c>
       <c r="B60" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C60" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D60" s="6" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3219,23 +3211,23 @@
       <c r="G60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L60" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="M60" s="3">
-        <v>44480</v>
-      </c>
-      <c r="N60" s="8" t="s">
+        <v>44571</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3250,10 +3242,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G104">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8:G116">
       <formula1>Hidden_16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I104">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I116">
       <formula1>Hidden_28</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f10_aUPPachuca.xlsx
+++ b/xlsx/a69_f10_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Actualización de Observaciones Pagina Oficial 4to Trimestre\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -795,14 +795,14 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>

--- a/xlsx/a69_f10_aUPPachuca.xlsx
+++ b/xlsx/a69_f10_aUPPachuca.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="128">
   <si>
     <t>44209</t>
   </si>
@@ -400,8 +405,10 @@
     <t>Órgano Interno de Control</t>
   </si>
   <si>
-    <t>Esta Institución no emite convocatoria para ocupar cargos dentro de su estructura.
-La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría</t>
+    <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
+  </si>
+  <si>
+    <t>Pendiente por designar</t>
   </si>
 </sst>
 </file>
@@ -491,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -508,7 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -518,6 +524,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,7 +812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,38 +850,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -956,22 +972,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1022,15 +1038,15 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="2">
@@ -1039,23 +1055,23 @@
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N8" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1064,15 +1080,15 @@
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1081,23 +1097,23 @@
       <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N9" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1106,15 +1122,15 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D10" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1123,23 +1139,23 @@
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N10" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1148,15 +1164,15 @@
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1165,65 +1181,63 @@
       <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44652</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="9">
+        <v>44753</v>
+      </c>
+      <c r="M12" s="9">
+        <v>44753</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1232,15 +1246,15 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D13" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1249,23 +1263,23 @@
       <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M13" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N13" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1274,15 +1288,15 @@
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1291,23 +1305,23 @@
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M14" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N14" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1316,15 +1330,15 @@
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D15" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1333,23 +1347,23 @@
       <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M15" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N15" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1358,15 +1372,15 @@
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1375,23 +1389,23 @@
       <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M16" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N16" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1400,15 +1414,15 @@
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1417,23 +1431,23 @@
       <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M17" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N17" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1442,15 +1456,15 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1459,23 +1473,23 @@
       <c r="G18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L18" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M18" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N18" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1484,15 +1498,15 @@
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1501,23 +1515,23 @@
       <c r="G19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L19" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M19" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N19" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1526,15 +1540,15 @@
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D20" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1543,23 +1557,23 @@
       <c r="G20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M20" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N20" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1568,15 +1582,15 @@
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C21" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D21" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1585,23 +1599,23 @@
       <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L21" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M21" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N21" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1610,15 +1624,15 @@
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C22" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D22" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1627,23 +1641,23 @@
       <c r="G22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M22" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N22" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1652,15 +1666,15 @@
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C23" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1669,23 +1683,23 @@
       <c r="G23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L23" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M23" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N23" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1694,15 +1708,15 @@
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C24" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D24" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1711,23 +1725,23 @@
       <c r="G24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M24" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N24" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1736,15 +1750,15 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C25" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D25" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1753,23 +1767,23 @@
       <c r="G25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L25" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M25" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N25" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1778,15 +1792,15 @@
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C26" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D26" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -1795,23 +1809,23 @@
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M26" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N26" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1820,15 +1834,15 @@
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C27" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D27" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -1837,23 +1851,23 @@
       <c r="G27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L27" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M27" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N27" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1862,15 +1876,15 @@
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C28" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D28" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -1879,23 +1893,23 @@
       <c r="G28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L28" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M28" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N28" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1904,15 +1918,15 @@
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C29" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D29" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -1921,24 +1935,24 @@
       <c r="G29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M29" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>124</v>
+        <v>44753</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1946,15 +1960,15 @@
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C30" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D30" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -1963,24 +1977,24 @@
       <c r="G30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L30" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M30" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>124</v>
+        <v>44753</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1988,15 +2002,15 @@
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C31" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D31" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -2005,23 +2019,23 @@
       <c r="G31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L31" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M31" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N31" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2030,15 +2044,15 @@
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C32" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D32" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2047,23 +2061,23 @@
       <c r="G32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M32" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N32" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2072,15 +2086,15 @@
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C33" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D33" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -2089,23 +2103,23 @@
       <c r="G33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L33" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M33" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N33" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2114,15 +2128,15 @@
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C34" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D34" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -2131,23 +2145,23 @@
       <c r="G34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M34" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N34" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2156,15 +2170,15 @@
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C35" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D35" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -2173,23 +2187,23 @@
       <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L35" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M35" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N35" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2198,15 +2212,15 @@
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C36" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D36" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -2215,23 +2229,23 @@
       <c r="G36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L36" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M36" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N36" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2240,15 +2254,15 @@
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C37" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D37" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -2257,23 +2271,23 @@
       <c r="G37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L37" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M37" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N37" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2282,15 +2296,15 @@
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C38" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D38" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -2299,23 +2313,23 @@
       <c r="G38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L38" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M38" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N38" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2324,15 +2338,15 @@
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C39" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -2341,23 +2355,23 @@
       <c r="G39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M39" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N39" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N39" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2366,15 +2380,15 @@
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C40" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D40" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -2383,23 +2397,23 @@
       <c r="G40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L40" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M40" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N40" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2408,15 +2422,15 @@
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C41" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D41" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -2425,23 +2439,23 @@
       <c r="G41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>103</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L41" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M41" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N41" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2450,15 +2464,15 @@
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C42" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D42" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -2467,23 +2481,23 @@
       <c r="G42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>105</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L42" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M42" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N42" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2492,15 +2506,15 @@
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C43" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D43" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2509,23 +2523,23 @@
       <c r="G43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L43" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M43" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N43" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2534,15 +2548,15 @@
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C44" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D44" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -2551,23 +2565,23 @@
       <c r="G44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L44" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M44" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N44" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2576,15 +2590,15 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C45" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D45" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -2593,23 +2607,23 @@
       <c r="G45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L45" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M45" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N45" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2618,15 +2632,15 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C46" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D46" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2635,23 +2649,23 @@
       <c r="G46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L46" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M46" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N46" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2660,15 +2674,15 @@
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C47" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D47" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -2677,23 +2691,23 @@
       <c r="G47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L47" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M47" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N47" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2702,15 +2716,15 @@
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C48" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D48" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -2719,23 +2733,23 @@
       <c r="G48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="9" t="s">
+      <c r="K48" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L48" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M48" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N48" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2744,15 +2758,15 @@
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C49" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D49" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -2761,23 +2775,23 @@
       <c r="G49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L49" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M49" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N49" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2786,15 +2800,15 @@
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C50" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D50" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -2803,23 +2817,23 @@
       <c r="G50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L50" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M50" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N50" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2828,15 +2842,15 @@
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C51" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D51" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -2845,23 +2859,23 @@
       <c r="G51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M51" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N51" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N51" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2870,15 +2884,15 @@
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C52" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D52" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -2887,23 +2901,23 @@
       <c r="G52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L52" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M52" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N52" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2912,15 +2926,15 @@
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C53" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D53" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -2929,23 +2943,23 @@
       <c r="G53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="9" t="s">
+      <c r="K53" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L53" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M53" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N53" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2954,15 +2968,15 @@
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C54" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D54" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -2971,23 +2985,23 @@
       <c r="G54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L54" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M54" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N54" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2996,15 +3010,15 @@
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C55" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D55" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -3013,23 +3027,23 @@
       <c r="G55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="9" t="s">
+      <c r="K55" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L55" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M55" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N55" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N55" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3038,15 +3052,15 @@
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C56" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D56" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -3055,23 +3069,23 @@
       <c r="G56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L56" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M56" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N56" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3080,15 +3094,15 @@
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C57" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D57" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -3097,23 +3111,23 @@
       <c r="G57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L57" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M57" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N57" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N57" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3122,15 +3136,15 @@
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C58" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D58" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3139,23 +3153,23 @@
       <c r="G58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L58" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M58" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N58" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N58" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3164,15 +3178,15 @@
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C59" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D59" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3181,23 +3195,23 @@
       <c r="G59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M59" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N59" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3206,15 +3220,15 @@
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C60" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D60" s="8" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3223,23 +3237,23 @@
       <c r="G60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L60" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M60" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N60" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>124</v>
       </c>
     </row>
